--- a/July 2018/Weekend-Weekday Model/Validation/Input_July2018.xlsx
+++ b/July 2018/Weekend-Weekday Model/Validation/Input_July2018.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41E9447-9ADF-4E3E-B813-C5F870F8060F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA8F7D7-3524-4E2E-BE29-C37F8E71AB53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflow" sheetId="4" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE87C648-8DC5-4696-853D-D597AF6BA2AD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18">
-        <v>1732</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18">
-        <v>1730</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -827,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18">
-        <v>1727</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18">
-        <v>1726</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18">
-        <v>1723</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>1720</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -859,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18">
-        <v>1719</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="18">
-        <v>1717</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="18">
-        <v>1714</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -883,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="18">
-        <v>1711</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18">
-        <v>1709</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -899,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18">
-        <v>1706</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -907,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18">
-        <v>1703</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -915,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18">
-        <v>1702</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -923,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18">
-        <v>1700</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18">
-        <v>1697</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -939,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18">
-        <v>1695</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18">
-        <v>1692</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -955,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="18">
-        <v>1690</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -963,7 +963,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18">
-        <v>1687</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -971,7 +971,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="18">
-        <v>1686</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -979,7 +979,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="18">
-        <v>1684</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -987,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="18">
-        <v>1681</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -995,7 +995,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="18">
-        <v>1679</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1003,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="18">
-        <v>1676</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1011,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18">
-        <v>1673</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1019,7 +1019,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18">
-        <v>1670</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18">
-        <v>1668</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1035,7 +1035,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18">
-        <v>1666</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1043,7 +1043,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18">
-        <v>1664</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1051,7 +1051,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="18">
-        <v>1661</v>
+        <v>3469</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18">
-        <v>3609.81</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18">
-        <v>3609.58</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1099,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18">
-        <v>3609.38</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18">
-        <v>3609.23</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18">
-        <v>3609.01</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1123,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>3608.79</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1131,7 +1131,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18">
-        <v>3608.64</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1139,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="18">
-        <v>3608.48</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="18">
-        <v>3608.24</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1155,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="18">
-        <v>3608.02</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1163,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18">
-        <v>3607.8</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18">
-        <v>3607.58</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18">
-        <v>3607.35</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1187,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18">
-        <v>3607.22</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18">
-        <v>3607.05</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1203,7 +1203,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18">
-        <v>3606.82</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1211,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18">
-        <v>3606.62</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1219,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18">
-        <v>3606.43</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1227,7 +1227,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="18">
-        <v>3606.21</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1235,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18">
-        <v>3606.01</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="18">
-        <v>3605.9</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1251,7 +1251,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="18">
-        <v>3605.75</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1259,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="18">
-        <v>3605.53</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1267,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="18">
-        <v>3605.31</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1275,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="18">
-        <v>3605.05</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1283,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18">
-        <v>3604.83</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1291,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18">
-        <v>3604.6</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1299,7 +1299,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18">
-        <v>3604.43</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1307,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18">
-        <v>3604.26</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1315,7 +1315,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18">
-        <v>3604.04</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="18">
-        <v>3603.8</v>
+        <v>1661</v>
       </c>
     </row>
   </sheetData>
@@ -28754,7 +28754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572B24DE-E018-49AF-AC14-927553ADB3CA}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
